--- a/Data sets/Multiprocessors.xlsx
+++ b/Data sets/Multiprocessors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Bus Snooping (technique used in SMPs)</t>
   </si>
   <si>
-    <t>Bus Snooping Protocols</t>
-  </si>
-  <si>
-    <t>MESI Protocol</t>
-  </si>
-  <si>
     <t>Scalability (UMA)</t>
   </si>
   <si>
@@ -75,6 +69,39 @@
   </si>
   <si>
     <t>Flynn's Classification of Parallel Processing</t>
+  </si>
+  <si>
+    <t>Processor performance is influenced by factors like cycle time, CPI, power consumption, and parallelism techniques. Cycle time is directly related to system speed, while CPI measures the average number of clock cycles required to execute an instruction. The power wall challenges power consumption and heat dissipation, leading to the use of Instruction Level Parallelism (ILP) to achieve performance gains without increasing clock speeds. Multi-processors use Moore's Law to integrate multiple processing cores, promoting parallelism and enabling multiple concurrent threads. Efficient data sharing and synchronization mechanisms are crucial for proper coordination among cores. Modern processor systems aim to balance these factors to achieve optimal performance and meet the demands of complex computing tasks.</t>
+  </si>
+  <si>
+    <t>Shared memory multiprocessors are a widely used approach for multi-processor communication, allowing multiple processing elements (PEs) to access a common physical address space. This architecture, overseen by a shared operating system, promotes efficient data exchange, synchronization, and workload balancing. Shared memory multiprocessors can be classified as Uniform Memory Access (UMA) or Non-Uniform Memory Access (NUMA). These architectures enable scalable and high-performance multi-processor systems by effectively managing memory sharing and access patterns.</t>
+  </si>
+  <si>
+    <t>UMA is a memory architecture where all processing elements (PEs) in a multiprocessor system have equal access to memory. Symmetric Multi-processors (SMPs) distribute memory uniformly, but potential bottlenecks arise when PEs compete for shared memory bus. Local caches help mitigate this issue, but challenges arise when shared data blocks are fetched into separate local caches. Mechanisms like cache coherence protocols ensure reliable shared memory access.</t>
+  </si>
+  <si>
+    <t>Cache coherence is crucial in multi-processor systems, ensuring consistent data blocks in caches. The cache controller manages this, enforces rules, and uses techniques like MESI and MOESI protocols to maintain consistency. These protocols prevent conflicts and ensure accurate data across the system, ensuring reliable and predictable behavior.</t>
+  </si>
+  <si>
+    <t>Bus snooping is a technique in multi-processor systems to maintain cache coherence. It uses a dedicated snoop bus for coherency control, where cache controllers share memory addresses for write access. In write-invalidate protocols, caches invalidate their own copy, ensuring data consistency. In write-through caching, caches snoop in on the snoop bus to locate the most recent version. Efficient bus snooping mechanisms are crucial for maintaining coherent and consistent data across multiple caches in multi-processor systems.</t>
+  </si>
+  <si>
+    <t>Uniform Memory Access (UMA) architectures face scalability challenges due to contention on snoop and memory buses, making them impractical for systems with more than 32 processing elements. Alternative interconnection structures, such as crossbar switches, improve scalability by connecting multiple PEs and memory modules efficiently, allowing for 256 PEs and improved performance in larger multi-processor systems.</t>
+  </si>
+  <si>
+    <t>NUMA is an architecture for high scalability in multi-processor systems, distributing memory address space across hierarchical devices. This allows efficient data access and seamless expansion without excessive latency or contention. NUMA architectures improve performance and scalability for demanding computational workloads.</t>
+  </si>
+  <si>
+    <t>NC-NUMA is an architectural approach that prioritizes rapid local memory accesses while requiring longer latencies for remote access. Special algorithms dynamically relocate memory blocks based on access patterns and usage, minimizing remote accesses and enhancing system performance. This design strategy maximizes both local and remote memory access benefits.</t>
+  </si>
+  <si>
+    <t>CC-NUMA is an architectural approach that uses directory-based coherence control to address scalability limitations in bus-based coherence mechanisms. This approach optimizes data access by tracking memory block locations and using a write-through write policy to maintain cache coherence in larger multi-processor environments.</t>
+  </si>
+  <si>
+    <t>Message Passing Multi-processors are an architectural paradigm that uses dedicated communication channels for inter-processor communication. These systems lack memory sharing and have private memory and operating system instances for each processing element. Programmers hold significant control over inter-processor communication, making them ideal for application-specific designs and large-scale systems managing multiple independent tasks efficiently.</t>
+  </si>
+  <si>
+    <t>Flynn's Classification of Parallel Processing categorizes architectures based on instructions and data they process. It includes SISD (Single Instruction Stream, Single Data Stream) for traditional uniprocessors, SIMD (Single Instruction Stream, Multiple Data Streams), MISD (Multiple Instruction Streams, Single Data Stream), and MIMD (Multiple Instruction Streams, Multiple Data Streams). These categories enable parallel execution of diverse tasks and efficient resource utilization in complex computing scenarios.</t>
   </si>
 </sst>
 </file>
@@ -392,16 +419,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="79.77734375" customWidth="1"/>
+    <col min="3" max="3" width="160.77734375" customWidth="1"/>
     <col min="4" max="4" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -419,12 +446,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -434,6 +464,9 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -442,6 +475,9 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -450,6 +486,9 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -458,6 +497,9 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -466,6 +508,9 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -474,6 +519,9 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -482,6 +530,9 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -490,6 +541,9 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -498,6 +552,9 @@
       <c r="B11" t="s">
         <v>13</v>
       </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -506,21 +563,8 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="C12" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Data sets/Multiprocessors.xlsx
+++ b/Data sets/Multiprocessors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CO425 Final Year Project II\Data sets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CO425 Final Year Project II\Repo\08_15\e17-4yp-Large-Language-Models-in-Education\Data sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -102,6 +102,39 @@
   </si>
   <si>
     <t>Flynn's Classification of Parallel Processing categorizes architectures based on instructions and data they process. It includes SISD (Single Instruction Stream, Single Data Stream) for traditional uniprocessors, SIMD (Single Instruction Stream, Multiple Data Streams), MISD (Multiple Instruction Streams, Single Data Stream), and MIMD (Multiple Instruction Streams, Multiple Data Streams). These categories enable parallel execution of diverse tasks and efficient resource utilization in complex computing scenarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiprocessors_performance_of_processor_systems </t>
+  </si>
+  <si>
+    <t>Multiprocessors_SMMs</t>
+  </si>
+  <si>
+    <t>Multiprocessors_UMA</t>
+  </si>
+  <si>
+    <t>Multiprocessors_cache_coherence</t>
+  </si>
+  <si>
+    <t>Multiprocessors_Bus_snooping</t>
+  </si>
+  <si>
+    <t>Multiprocessors_UMA_Scalability</t>
+  </si>
+  <si>
+    <t>Multiprocessors_NUMA</t>
+  </si>
+  <si>
+    <t>Multiprocessors_NC-NUMA (Non-Cached)</t>
+  </si>
+  <si>
+    <t>Multiprocessors_CC-NUMA (Cache-Coherent)</t>
+  </si>
+  <si>
+    <t>Multiprocessors_Message Passing Multi-processors</t>
+  </si>
+  <si>
+    <t>Multiprocessors_Flynn’s Classification of Parallel Processing</t>
   </si>
 </sst>
 </file>
@@ -422,13 +455,13 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="160.77734375" customWidth="1"/>
+    <col min="3" max="3" width="138.88671875" customWidth="1"/>
     <col min="4" max="4" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -456,6 +489,9 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -467,6 +503,9 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -478,6 +517,9 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -489,6 +531,9 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -500,6 +545,9 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -511,6 +559,9 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -522,6 +573,9 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -533,6 +587,9 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -544,6 +601,9 @@
       <c r="C10" t="s">
         <v>23</v>
       </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -555,6 +615,9 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -565,6 +628,9 @@
       </c>
       <c r="C12" t="s">
         <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
